--- a/Estimations.xlsx
+++ b/Estimations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postAssignemnt\PostAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE93F78-1D90-4935-B43D-07E1CAA0D35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190251DB-D236-48CD-AD8E-57F74BE971AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{8AE9A3CC-D0C6-4DB0-BD5A-B2A5BA2ADA9F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Know how for new technologies</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Task1</t>
   </si>
   <si>
-    <t>add controllera to test the functionality</t>
-  </si>
-  <si>
     <t>testing</t>
   </si>
   <si>
@@ -85,13 +82,19 @@
   </si>
   <si>
     <t>0.5 h</t>
+  </si>
+  <si>
+    <t>add controller to test the functionality</t>
+  </si>
+  <si>
+    <t>add documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +104,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5635F83-2356-4FD6-87CE-6F32EA08C6C0}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +534,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -530,23 +542,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
